--- a/Documents/Профиль.xlsx
+++ b/Documents/Профиль.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,13 +565,7 @@
         <f t="shared" ref="D17:D21" si="2">1 - B17/C17</f>
         <v>-6.9444444444444198E-3</v>
       </c>
-      <c r="E17">
-        <v>84</v>
-      </c>
-      <c r="F17" s="1">
-        <f>1 - C17/(E17*3)</f>
-        <v>1.4778325123152691E-2</v>
-      </c>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -588,13 +582,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>152</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" ref="F18:F21" si="3">1 - C18/(E18*3)</f>
-        <v>1.3157894736842146E-2</v>
-      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -611,13 +599,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E19">
-        <v>202</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="3"/>
-        <v>9.9009900990099098E-3</v>
-      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -634,13 +616,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>67</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="3"/>
-        <v>4.9751243781094301E-3</v>
-      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -657,13 +633,7 @@
         <f t="shared" si="2"/>
         <v>4.6296296296297612E-3</v>
       </c>
-      <c r="E21">
-        <v>171</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="3"/>
-        <v>2.0807833537331621E-2</v>
-      </c>
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Профиль.xlsx
+++ b/Documents/Профиль.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>VU</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>Авторизация</t>
-  </si>
-  <si>
     <t>Покупка спец предложения</t>
   </si>
   <si>
@@ -52,6 +49,21 @@
   </si>
   <si>
     <t>Поиск товара</t>
+  </si>
+  <si>
+    <t>По статистике</t>
+  </si>
+  <si>
+    <t>По профилю</t>
+  </si>
+  <si>
+    <t>Отклонение</t>
+  </si>
+  <si>
+    <t>В результате теста</t>
+  </si>
+  <si>
+    <t>100% Нагрузка</t>
   </si>
 </sst>
 </file>
@@ -95,10 +107,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -380,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,9 +405,11 @@
     <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -411,229 +426,232 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
-        <f>60/C2*D2*60</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E2:E6" si="0">60/C2*D2*60</f>
+        <v>248.27586206896552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E7" si="0">60/C3*D3*60</f>
-        <v>248.27586206896552</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>18</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
+        <v>502.32558139534888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>250</v>
+      </c>
+      <c r="C15" s="2">
+        <f>E2</f>
+        <v>248.27586206896552</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ref="D15:D19" si="1">1 - B15/C15</f>
+        <v>-6.9444444444444198E-3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>251</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1-C15/F15</f>
+        <v>1.0853139167467996E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>450</v>
+      </c>
+      <c r="C16" s="2">
+        <f>E3</f>
+        <v>450</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>454</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16:G19" si="2">1-C16/F16</f>
+        <v>8.8105726872246271E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>600</v>
+      </c>
+      <c r="C17" s="2">
+        <f>E4</f>
+        <v>600</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>603</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9751243781094301E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
         <v>200</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>43</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>502.32558139534888</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>120</v>
-      </c>
-      <c r="C16" s="2">
-        <f>E2</f>
-        <v>150</v>
-      </c>
-      <c r="D16" s="1">
-        <f>1 - B16/C16</f>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>250</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" ref="C17:C21" si="1">E3</f>
-        <v>248.27586206896552</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" ref="D17:D21" si="2">1 - B17/C17</f>
-        <v>-6.9444444444444198E-3</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>450</v>
-      </c>
       <c r="C18" s="2">
+        <f>E5</f>
+        <v>200</v>
+      </c>
+      <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>200</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="C19" s="2">
+        <f>E6</f>
+        <v>502.32558139534888</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="D19" s="1">
+        <v>4.6296296296297612E-3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>510</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>200</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21">
-        <v>500</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="1"/>
-        <v>502.32558139534888</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="2"/>
-        <v>4.6296296296297612E-3</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>1.5047879616962967E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
